--- a/Centerport/bin/Debug/MMSDATA/Template/Source/SEROLOGY_TEMPLATE.xlsx
+++ b/Centerport/bin/Debug/MMSDATA/Template/Source/SEROLOGY_TEMPLATE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Devs\SGS\ClinicalLaboratoryInformationManagementSystem\Centerport\bin\Debug\MMSDATA\Template\Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Devs\SGS\MedicalManagementSoftware-V2023.09.04.02\Centerport\bin\Debug\MMSDATA\Template\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -503,6 +503,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -523,51 +568,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1379,7 +1379,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="A13" sqref="A13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1401,28 +1401,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
       <c r="L2" s="29"/>
@@ -1434,15 +1434,15 @@
       <c r="R2" s="29"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="29"/>
       <c r="K3" s="29" t="s">
         <v>10</v>
@@ -1460,15 +1460,15 @@
       <c r="R3" s="29"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
       <c r="J4" s="29"/>
       <c r="K4" s="29" t="s">
         <v>13</v>
@@ -1486,15 +1486,15 @@
       <c r="R4" s="29"/>
     </row>
     <row r="5" spans="1:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
       <c r="J5" s="29"/>
       <c r="K5" s="29" t="s">
         <v>16</v>
@@ -1512,15 +1512,15 @@
       <c r="R5" s="29"/>
     </row>
     <row r="6" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="29"/>
       <c r="K6" s="29" t="s">
         <v>19</v>
@@ -1562,15 +1562,15 @@
       <c r="R7" s="29"/>
     </row>
     <row r="8" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
       <c r="J8" s="29"/>
       <c r="K8" s="29" t="s">
         <v>22</v>
@@ -1589,20 +1589,20 @@
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="4"/>
       <c r="F9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="29"/>
       <c r="K9" s="29" t="s">
         <v>9</v>
@@ -1621,18 +1621,18 @@
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="6"/>
       <c r="F10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
       <c r="J10" s="29"/>
       <c r="K10" s="29" t="s">
         <v>23</v>
@@ -1670,17 +1670,17 @@
       <c r="R11" s="29"/>
     </row>
     <row r="12" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
       <c r="J12" s="30"/>
       <c r="K12" s="29"/>
       <c r="L12" s="29" t="s">
@@ -1694,17 +1694,17 @@
       <c r="R12" s="29"/>
     </row>
     <row r="13" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="30" t="s">
         <v>41</v>
       </c>
@@ -1721,11 +1721,11 @@
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="C14" s="24"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
       <c r="I14" s="11"/>
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
@@ -1739,17 +1739,17 @@
     </row>
     <row r="15" spans="1:18" s="13" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
       <c r="I15" s="14"/>
       <c r="J15" s="31"/>
       <c r="K15" s="31" t="s">
@@ -1787,19 +1787,19 @@
     </row>
     <row r="17" spans="1:18" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="F17" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
       <c r="I17" s="11"/>
       <c r="J17" s="31"/>
       <c r="K17" s="31"/>
@@ -1813,19 +1813,19 @@
     </row>
     <row r="18" spans="1:18" s="11" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
       <c r="E18" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="61" t="s">
+      <c r="F18" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
       <c r="I18" s="14"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
@@ -1861,14 +1861,14 @@
       <c r="C20" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
@@ -1883,12 +1883,12 @@
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="39"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
     </row>
     <row r="22" spans="1:18" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="6"/>
@@ -1917,53 +1917,60 @@
       <c r="C24" s="34"/>
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
-      <c r="G24" s="42" t="s">
+      <c r="G24" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
       <c r="J24" s="33"/>
     </row>
     <row r="25" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="45"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="36"/>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="46"/>
+      <c r="E25" s="61"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
       <c r="J25" s="33"/>
     </row>
     <row r="26" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="41"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="37"/>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="G26" s="41" t="s">
+      <c r="E26" s="56"/>
+      <c r="G26" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
       <c r="J26" s="33"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G24:I25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="D20:I21"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="B9:D9"/>
@@ -1980,13 +1987,6 @@
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="F18:H18"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G24:I25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17:H17">
